--- a/DMP/Report/Template/ART sites - fy18.xlsx
+++ b/DMP/Report/Template/ART sites - fy18.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3364" uniqueCount="3053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3449" uniqueCount="3081">
   <si>
     <t>ab Aba North Local Government Area</t>
   </si>
@@ -9193,6 +9193,90 @@
   </si>
   <si>
     <t>MYIbzpMWd8N</t>
+  </si>
+  <si>
+    <t>Ondo</t>
+  </si>
+  <si>
+    <t>NPHC Iju-Odo</t>
+  </si>
+  <si>
+    <t>qD3yYpunSng</t>
+  </si>
+  <si>
+    <t>Zumunta Yelwa Ediya Clinic</t>
+  </si>
+  <si>
+    <t>Kingscare Hospital</t>
+  </si>
+  <si>
+    <t>Kpamu Shammah Hospital</t>
+  </si>
+  <si>
+    <t>Livia Shammah Hospitals Limited</t>
+  </si>
+  <si>
+    <t>Maraba Clinic and Maternity</t>
+  </si>
+  <si>
+    <t>Mayday Specialist Hospital and Maternity</t>
+  </si>
+  <si>
+    <t>Nisi Hospital</t>
+  </si>
+  <si>
+    <t>Ojone Favour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakowa Clinic  </t>
+  </si>
+  <si>
+    <t>Pijag Maternity Home</t>
+  </si>
+  <si>
+    <t>Rafin Kwara Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Gora Primary Health Centre</t>
+  </si>
+  <si>
+    <t>New Karu Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Auta Balefi Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Masaka Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Gidan Zankara Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Adonai Hospital</t>
+  </si>
+  <si>
+    <t>Mojilla Hospital</t>
+  </si>
+  <si>
+    <t>Maranatha Clinic</t>
+  </si>
+  <si>
+    <t>Nyekasi Nursing Home</t>
+  </si>
+  <si>
+    <t>Aso Pada Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Nyanya Gbagyi Primary Health Centre</t>
+  </si>
+  <si>
+    <t>Evangelical Church of West Africa(ECWA) Clinic Kabusa</t>
+  </si>
+  <si>
+    <t>St. Andrews Anglican Hospital Kubwa</t>
+  </si>
+  <si>
+    <t>Medical Mission of Mary Lugbe</t>
   </si>
 </sst>
 </file>
@@ -19079,10 +19163,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20103,16 +20187,16 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>2782</v>
+        <v>2925</v>
       </c>
       <c r="B73" t="s">
-        <v>276</v>
+        <v>396</v>
       </c>
       <c r="C73" t="s">
-        <v>3051</v>
+        <v>2926</v>
       </c>
       <c r="D73" t="s">
-        <v>3052</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -20120,13 +20204,13 @@
         <v>2925</v>
       </c>
       <c r="B74" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="C74" t="s">
-        <v>2926</v>
+        <v>2928</v>
       </c>
       <c r="D74" t="s">
-        <v>2927</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -20134,27 +20218,27 @@
         <v>2925</v>
       </c>
       <c r="B75" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C75" t="s">
-        <v>2928</v>
+        <v>2930</v>
       </c>
       <c r="D75" t="s">
-        <v>2929</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>2925</v>
+        <v>2932</v>
       </c>
       <c r="B76" t="s">
-        <v>431</v>
+        <v>527</v>
       </c>
       <c r="C76" t="s">
-        <v>2930</v>
+        <v>2933</v>
       </c>
       <c r="D76" t="s">
-        <v>2931</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -20165,10 +20249,10 @@
         <v>527</v>
       </c>
       <c r="C77" t="s">
-        <v>2933</v>
+        <v>2935</v>
       </c>
       <c r="D77" t="s">
-        <v>2934</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -20179,10 +20263,10 @@
         <v>527</v>
       </c>
       <c r="C78" t="s">
-        <v>2935</v>
+        <v>2937</v>
       </c>
       <c r="D78" t="s">
-        <v>2936</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -20193,10 +20277,10 @@
         <v>527</v>
       </c>
       <c r="C79" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="D79" t="s">
-        <v>2938</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -20207,10 +20291,10 @@
         <v>527</v>
       </c>
       <c r="C80" t="s">
-        <v>2939</v>
+        <v>2941</v>
       </c>
       <c r="D80" t="s">
-        <v>2940</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -20221,10 +20305,10 @@
         <v>527</v>
       </c>
       <c r="C81" t="s">
-        <v>2941</v>
+        <v>2943</v>
       </c>
       <c r="D81" t="s">
-        <v>2942</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -20235,10 +20319,10 @@
         <v>527</v>
       </c>
       <c r="C82" t="s">
-        <v>2943</v>
+        <v>2945</v>
       </c>
       <c r="D82" t="s">
-        <v>2944</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -20246,13 +20330,13 @@
         <v>2932</v>
       </c>
       <c r="B83" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C83" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="D83" t="s">
-        <v>2946</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -20263,10 +20347,10 @@
         <v>528</v>
       </c>
       <c r="C84" t="s">
-        <v>2947</v>
+        <v>2949</v>
       </c>
       <c r="D84" t="s">
-        <v>2948</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -20277,10 +20361,10 @@
         <v>528</v>
       </c>
       <c r="C85" t="s">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="D85" t="s">
-        <v>2950</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -20291,10 +20375,10 @@
         <v>528</v>
       </c>
       <c r="C86" t="s">
-        <v>2951</v>
+        <v>2953</v>
       </c>
       <c r="D86" t="s">
-        <v>2952</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -20305,10 +20389,10 @@
         <v>528</v>
       </c>
       <c r="C87" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="D87" t="s">
-        <v>2954</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -20319,10 +20403,10 @@
         <v>528</v>
       </c>
       <c r="C88" t="s">
-        <v>2955</v>
+        <v>2957</v>
       </c>
       <c r="D88" t="s">
-        <v>2956</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -20333,10 +20417,10 @@
         <v>528</v>
       </c>
       <c r="C89" t="s">
-        <v>2957</v>
+        <v>2959</v>
       </c>
       <c r="D89" t="s">
-        <v>2958</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -20347,10 +20431,10 @@
         <v>528</v>
       </c>
       <c r="C90" t="s">
-        <v>2959</v>
+        <v>2961</v>
       </c>
       <c r="D90" t="s">
-        <v>2960</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -20361,10 +20445,10 @@
         <v>528</v>
       </c>
       <c r="C91" t="s">
-        <v>2961</v>
+        <v>2963</v>
       </c>
       <c r="D91" t="s">
-        <v>2962</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -20375,10 +20459,10 @@
         <v>528</v>
       </c>
       <c r="C92" t="s">
-        <v>2963</v>
+        <v>2965</v>
       </c>
       <c r="D92" t="s">
-        <v>2964</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -20386,13 +20470,13 @@
         <v>2932</v>
       </c>
       <c r="B93" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C93" t="s">
-        <v>2965</v>
+        <v>2967</v>
       </c>
       <c r="D93" t="s">
-        <v>2966</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -20400,13 +20484,13 @@
         <v>2932</v>
       </c>
       <c r="B94" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C94" t="s">
-        <v>2967</v>
+        <v>2969</v>
       </c>
       <c r="D94" t="s">
-        <v>2968</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -20417,10 +20501,10 @@
         <v>533</v>
       </c>
       <c r="C95" t="s">
-        <v>2969</v>
+        <v>2971</v>
       </c>
       <c r="D95" t="s">
-        <v>2970</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -20428,13 +20512,13 @@
         <v>2932</v>
       </c>
       <c r="B96" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C96" t="s">
-        <v>2971</v>
+        <v>2973</v>
       </c>
       <c r="D96" t="s">
-        <v>2972</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -20445,10 +20529,10 @@
         <v>532</v>
       </c>
       <c r="C97" t="s">
-        <v>2973</v>
+        <v>2975</v>
       </c>
       <c r="D97" t="s">
-        <v>2974</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -20459,10 +20543,10 @@
         <v>532</v>
       </c>
       <c r="C98" t="s">
-        <v>2975</v>
+        <v>2977</v>
       </c>
       <c r="D98" t="s">
-        <v>2976</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -20473,10 +20557,10 @@
         <v>532</v>
       </c>
       <c r="C99" t="s">
-        <v>2977</v>
+        <v>2979</v>
       </c>
       <c r="D99" t="s">
-        <v>2978</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -20487,10 +20571,10 @@
         <v>532</v>
       </c>
       <c r="C100" t="s">
-        <v>2979</v>
+        <v>2981</v>
       </c>
       <c r="D100" t="s">
-        <v>2980</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -20501,10 +20585,10 @@
         <v>532</v>
       </c>
       <c r="C101" t="s">
-        <v>2981</v>
+        <v>2983</v>
       </c>
       <c r="D101" t="s">
-        <v>2982</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -20515,10 +20599,10 @@
         <v>532</v>
       </c>
       <c r="C102" t="s">
-        <v>2983</v>
+        <v>2985</v>
       </c>
       <c r="D102" t="s">
-        <v>2984</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -20529,10 +20613,10 @@
         <v>532</v>
       </c>
       <c r="C103" t="s">
-        <v>2985</v>
+        <v>2987</v>
       </c>
       <c r="D103" t="s">
-        <v>2986</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -20540,13 +20624,13 @@
         <v>2932</v>
       </c>
       <c r="B104" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C104" t="s">
-        <v>2987</v>
+        <v>2989</v>
       </c>
       <c r="D104" t="s">
-        <v>2988</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -20557,10 +20641,10 @@
         <v>535</v>
       </c>
       <c r="C105" t="s">
-        <v>2989</v>
+        <v>2991</v>
       </c>
       <c r="D105" t="s">
-        <v>2990</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -20568,13 +20652,13 @@
         <v>2932</v>
       </c>
       <c r="B106" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C106" t="s">
-        <v>2991</v>
+        <v>2993</v>
       </c>
       <c r="D106" t="s">
-        <v>2992</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -20585,10 +20669,10 @@
         <v>527</v>
       </c>
       <c r="C107" t="s">
-        <v>2993</v>
+        <v>2995</v>
       </c>
       <c r="D107" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -20599,10 +20683,10 @@
         <v>527</v>
       </c>
       <c r="C108" t="s">
-        <v>2995</v>
+        <v>2997</v>
       </c>
       <c r="D108" t="s">
-        <v>2996</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -20613,10 +20697,10 @@
         <v>527</v>
       </c>
       <c r="C109" t="s">
-        <v>2997</v>
+        <v>2999</v>
       </c>
       <c r="D109" t="s">
-        <v>2998</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -20624,13 +20708,13 @@
         <v>2932</v>
       </c>
       <c r="B110" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C110" t="s">
-        <v>2999</v>
+        <v>3001</v>
       </c>
       <c r="D110" t="s">
-        <v>3000</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -20641,10 +20725,10 @@
         <v>528</v>
       </c>
       <c r="C111" t="s">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="D111" t="s">
-        <v>3002</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -20655,10 +20739,10 @@
         <v>528</v>
       </c>
       <c r="C112" t="s">
-        <v>3003</v>
+        <v>3005</v>
       </c>
       <c r="D112" t="s">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -20669,10 +20753,10 @@
         <v>528</v>
       </c>
       <c r="C113" t="s">
-        <v>3005</v>
+        <v>3007</v>
       </c>
       <c r="D113" t="s">
-        <v>3006</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -20683,10 +20767,10 @@
         <v>528</v>
       </c>
       <c r="C114" t="s">
-        <v>3007</v>
+        <v>3009</v>
       </c>
       <c r="D114" t="s">
-        <v>3008</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -20697,10 +20781,10 @@
         <v>528</v>
       </c>
       <c r="C115" t="s">
-        <v>3009</v>
+        <v>3011</v>
       </c>
       <c r="D115" t="s">
-        <v>3010</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -20711,10 +20795,10 @@
         <v>528</v>
       </c>
       <c r="C116" t="s">
-        <v>3011</v>
+        <v>3013</v>
       </c>
       <c r="D116" t="s">
-        <v>3012</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -20725,10 +20809,10 @@
         <v>528</v>
       </c>
       <c r="C117" t="s">
-        <v>3013</v>
+        <v>3015</v>
       </c>
       <c r="D117" t="s">
-        <v>3014</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -20739,10 +20823,10 @@
         <v>528</v>
       </c>
       <c r="C118" t="s">
-        <v>3015</v>
+        <v>3017</v>
       </c>
       <c r="D118" t="s">
-        <v>3016</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -20750,13 +20834,13 @@
         <v>2932</v>
       </c>
       <c r="B119" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C119" t="s">
-        <v>3017</v>
+        <v>3019</v>
       </c>
       <c r="D119" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -20764,13 +20848,13 @@
         <v>2932</v>
       </c>
       <c r="B120" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C120" t="s">
-        <v>3019</v>
+        <v>3021</v>
       </c>
       <c r="D120" t="s">
-        <v>3020</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -20781,10 +20865,10 @@
         <v>532</v>
       </c>
       <c r="C121" t="s">
-        <v>3021</v>
+        <v>3023</v>
       </c>
       <c r="D121" t="s">
-        <v>3022</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -20795,10 +20879,10 @@
         <v>532</v>
       </c>
       <c r="C122" t="s">
-        <v>3023</v>
+        <v>3025</v>
       </c>
       <c r="D122" t="s">
-        <v>3024</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -20809,10 +20893,10 @@
         <v>532</v>
       </c>
       <c r="C123" t="s">
-        <v>3025</v>
+        <v>3027</v>
       </c>
       <c r="D123" t="s">
-        <v>3026</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -20823,10 +20907,10 @@
         <v>532</v>
       </c>
       <c r="C124" t="s">
-        <v>3027</v>
+        <v>3029</v>
       </c>
       <c r="D124" t="s">
-        <v>3028</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -20837,10 +20921,10 @@
         <v>532</v>
       </c>
       <c r="C125" t="s">
-        <v>3029</v>
+        <v>3031</v>
       </c>
       <c r="D125" t="s">
-        <v>3030</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -20848,13 +20932,13 @@
         <v>2932</v>
       </c>
       <c r="B126" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C126" t="s">
-        <v>3031</v>
+        <v>3033</v>
       </c>
       <c r="D126" t="s">
-        <v>3032</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -20865,10 +20949,10 @@
         <v>533</v>
       </c>
       <c r="C127" t="s">
-        <v>3033</v>
+        <v>3035</v>
       </c>
       <c r="D127" t="s">
-        <v>3034</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -20879,10 +20963,10 @@
         <v>533</v>
       </c>
       <c r="C128" t="s">
-        <v>3035</v>
+        <v>3037</v>
       </c>
       <c r="D128" t="s">
-        <v>3036</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -20893,10 +20977,10 @@
         <v>533</v>
       </c>
       <c r="C129" t="s">
-        <v>3037</v>
+        <v>3039</v>
       </c>
       <c r="D129" t="s">
-        <v>3038</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -20904,13 +20988,13 @@
         <v>2932</v>
       </c>
       <c r="B130" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C130" t="s">
-        <v>3039</v>
+        <v>3041</v>
       </c>
       <c r="D130" t="s">
-        <v>3040</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -20921,10 +21005,10 @@
         <v>535</v>
       </c>
       <c r="C131" t="s">
-        <v>3041</v>
+        <v>3043</v>
       </c>
       <c r="D131" t="s">
-        <v>3042</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -20935,10 +21019,10 @@
         <v>535</v>
       </c>
       <c r="C132" t="s">
-        <v>3043</v>
+        <v>3045</v>
       </c>
       <c r="D132" t="s">
-        <v>3044</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -20949,10 +21033,10 @@
         <v>535</v>
       </c>
       <c r="C133" t="s">
-        <v>3045</v>
+        <v>3047</v>
       </c>
       <c r="D133" t="s">
-        <v>3046</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -20960,27 +21044,338 @@
         <v>2932</v>
       </c>
       <c r="B134" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="C134" t="s">
-        <v>3047</v>
+        <v>3049</v>
       </c>
       <c r="D134" t="s">
-        <v>3048</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B135" t="s">
+        <v>276</v>
+      </c>
+      <c r="C135" t="s">
+        <v>3051</v>
+      </c>
+      <c r="D135" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B136" t="s">
+        <v>596</v>
+      </c>
+      <c r="C136" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D136" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>2932</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B137" t="s">
+        <v>527</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B138" t="s">
+        <v>527</v>
+      </c>
+      <c r="C138" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B139" t="s">
         <v>528</v>
       </c>
-      <c r="C135" t="s">
-        <v>3049</v>
-      </c>
-      <c r="D135" t="s">
-        <v>3050</v>
+      <c r="C139" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B140" t="s">
+        <v>528</v>
+      </c>
+      <c r="C140" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B141" t="s">
+        <v>528</v>
+      </c>
+      <c r="C141" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B142" t="s">
+        <v>528</v>
+      </c>
+      <c r="C142" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B143" t="s">
+        <v>528</v>
+      </c>
+      <c r="C143" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B144" t="s">
+        <v>528</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B145" t="s">
+        <v>528</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B146" t="s">
+        <v>528</v>
+      </c>
+      <c r="C146" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B147" t="s">
+        <v>528</v>
+      </c>
+      <c r="C147" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B148" t="s">
+        <v>528</v>
+      </c>
+      <c r="C148" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B149" t="s">
+        <v>528</v>
+      </c>
+      <c r="C149" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B150" t="s">
+        <v>528</v>
+      </c>
+      <c r="C150" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B151" t="s">
+        <v>528</v>
+      </c>
+      <c r="C151" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B152" t="s">
+        <v>528</v>
+      </c>
+      <c r="C152" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B153" t="s">
+        <v>528</v>
+      </c>
+      <c r="C153" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B154" t="s">
+        <v>528</v>
+      </c>
+      <c r="C154" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B155" t="s">
+        <v>528</v>
+      </c>
+      <c r="C155" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B156" t="s">
+        <v>528</v>
+      </c>
+      <c r="C156" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B157" t="s">
+        <v>528</v>
+      </c>
+      <c r="C157" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B158" t="s">
+        <v>528</v>
+      </c>
+      <c r="C158" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B159" t="s">
+        <v>528</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B160" t="s">
+        <v>528</v>
+      </c>
+      <c r="C160" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B161" t="s">
+        <v>277</v>
+      </c>
+      <c r="C161" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B162" t="s">
+        <v>277</v>
+      </c>
+      <c r="C162" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B163" t="s">
+        <v>276</v>
+      </c>
+      <c r="C163" t="s">
+        <v>3080</v>
       </c>
     </row>
   </sheetData>
